--- a/DATA_goal/Junction_Flooding_410.xlsx
+++ b/DATA_goal/Junction_Flooding_410.xlsx
@@ -446,11 +446,11 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -461,19 +461,19 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44781.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.2</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.13</v>
+        <v>101.32</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.62</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.05</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="M3" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.55</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T4" s="4" t="n">
+      <c r="Z4" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB4" s="4" t="n">
         <v>0.99</v>
       </c>
-      <c r="U4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AC4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -967,16 +967,16 @@
         <v>44781.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>0</v>
@@ -985,85 +985,85 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>0.01</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AD5" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_410.xlsx
+++ b/DATA_goal/Junction_Flooding_410.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.54861111111</v>
+        <v>45091.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.82</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.24</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.79</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.6</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.2</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.89</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.28</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.96</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.56</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.7</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.76</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.68</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.88</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.14</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.41</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.78</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.56</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.32</v>
+        <v>7.973</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>19.6</v>
+        <v>3.143</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.59</v>
+        <v>0.999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.19</v>
+        <v>0.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.91</v>
+        <v>0.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.55</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.82</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.51</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.11</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.57</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.88</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.33</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.24</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.55555555555</v>
+        <v>45091.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.52</v>
+        <v>7.103</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.73</v>
+        <v>6.019</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.31</v>
+        <v>0.201</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.62</v>
+        <v>14.907</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.05</v>
+        <v>13.12</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.53</v>
+        <v>4.979</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>20</v>
+        <v>16.122</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.06</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.59</v>
+        <v>3.731</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.49</v>
+        <v>5.366</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.81</v>
+        <v>7.185</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.4</v>
+        <v>6.991</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.01</v>
+        <v>2.075</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.26</v>
+        <v>5.368</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.15</v>
+        <v>8.221</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.92</v>
+        <v>4.611</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.637</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.041</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.79000000000001</v>
+        <v>77.968</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.77</v>
+        <v>15.635</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.86</v>
+        <v>5.361</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.43</v>
+        <v>10.128</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.09</v>
+        <v>5.224</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.9</v>
+        <v>8.680999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.29</v>
+        <v>4.568</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4</v>
+        <v>3.816</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.6</v>
+        <v>4.76</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.25</v>
+        <v>6.472</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>18.55</v>
+        <v>14.912</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.51</v>
+        <v>4.061</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.07</v>
+        <v>6.171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.5625</v>
+        <v>45091.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.28</v>
+        <v>8.156000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.86</v>
+        <v>6.507</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.226</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.14</v>
+        <v>17.28</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.9</v>
+        <v>14.788</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.968</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.89</v>
+        <v>23.342</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.67</v>
+        <v>9.553000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.88</v>
+        <v>4.326</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.49</v>
+        <v>6.28</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.23</v>
+        <v>7.663</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.48</v>
+        <v>7.767</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.6</v>
+        <v>2.196</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.13</v>
+        <v>6.196</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.46</v>
+        <v>9.332000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.33</v>
+        <v>5.268</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.469</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.093</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.92</v>
+        <v>89.664</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.47</v>
+        <v>17.913</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>6.037</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.07</v>
+        <v>11.863</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.09</v>
+        <v>6.121</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.827</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.34</v>
+        <v>11.93</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>5.199</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.99</v>
+        <v>4.407</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.09</v>
+        <v>5.415</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.37</v>
+        <v>7.414</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>7.71</v>
+        <v>21.755</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.068</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.31</v>
+        <v>7.153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.56944444445</v>
+        <v>45091.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.35</v>
+        <v>4.34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.2</v>
+        <v>3.51</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.46</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>3.58</v>
+        <v>14.34</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.05</v>
+        <v>2.3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.86</v>
+        <v>3.74</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_410.xlsx
+++ b/DATA_goal/Junction_Flooding_410.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -461,13 +461,13 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45091.50694444445</v>
+        <v>44781.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.861</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.491</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.076</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.861</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.002</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.492</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.701</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.367</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.983</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.944</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.138</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.723</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.566</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.961</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.973</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.143</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.999</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.92</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.309</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.721</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.494</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.966</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.167</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.71</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.101</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.612</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45091.51388888889</v>
+        <v>44781.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.103</v>
+        <v>6.517</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.019</v>
+        <v>4.729</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.201</v>
+        <v>1.306</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.907</v>
+        <v>14.618</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.12</v>
+        <v>11.046</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.979</v>
+        <v>4.53</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.122</v>
+        <v>19.997</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.731</v>
+        <v>3.592</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.366</v>
+        <v>4.495</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.185</v>
+        <v>5.809</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.991</v>
+        <v>6.397</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.075</v>
+        <v>2.006</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.368</v>
+        <v>5.263</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.221</v>
+        <v>7.147</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.611</v>
+        <v>4.917</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.637</v>
+        <v>0.73</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.041</v>
+        <v>0.48</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>77.968</v>
+        <v>72.789</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.635</v>
+        <v>14.77</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.361</v>
+        <v>4.858</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.128</v>
+        <v>9.432</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.224</v>
+        <v>5.092</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.643</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.680999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.568</v>
+        <v>4.291</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.816</v>
+        <v>4.002</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.76</v>
+        <v>4.598</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.472</v>
+        <v>6.253</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.912</v>
+        <v>18.546</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.061</v>
+        <v>2.51</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.171</v>
+        <v>6.074</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45091.52083333334</v>
+        <v>44781.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.156000000000001</v>
+        <v>1.282</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.507</v>
+        <v>0.864</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.226</v>
+        <v>0.745</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.28</v>
+        <v>3.137</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.788</v>
+        <v>1.902</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.968</v>
+        <v>0.591</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.342</v>
+        <v>7.893</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.553000000000001</v>
+        <v>1.671</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.326</v>
+        <v>0.881</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.28</v>
+        <v>0.486</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.663</v>
+        <v>1.229</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.767</v>
+        <v>1.476</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.196</v>
+        <v>0.596</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.196</v>
+        <v>1.128</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.332000000000001</v>
+        <v>1.456</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.268</v>
+        <v>1.33</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.469</v>
+        <v>0.452</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.093</v>
+        <v>0.241</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.664</v>
+        <v>9.919</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.913</v>
+        <v>3.466</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.037</v>
+        <v>1.041</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.863</v>
+        <v>2.069</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.121</v>
+        <v>1.086</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.827</v>
+        <v>0.124</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.93</v>
+        <v>4.336</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.199</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.407</v>
+        <v>0.987</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.415</v>
+        <v>1.092</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.414</v>
+        <v>1.367</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.755</v>
+        <v>7.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.068</v>
+        <v>0.407</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.153</v>
+        <v>1.309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45091.52777777778</v>
+        <v>44781.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.34</v>
+        <v>0.352</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.51</v>
+        <v>0.196</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.85</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.228</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.103</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>3.584</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AF6" s="4" t="n">
         <v>3.06</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>3.74</v>
+      <c r="AG6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_410.xlsx
+++ b/DATA_goal/Junction_Flooding_410.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -461,13 +461,13 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.54861111111</v>
+        <v>45091.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.821999999999999</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.243</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.794</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.605</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.205</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.893</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.279</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.957</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.563</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.697</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.759</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.683999999999999</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.881</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.143</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.409000000000001</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.779</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.556</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.752</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.319</v>
+        <v>7.973</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>19.6</v>
+        <v>3.143</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.594</v>
+        <v>0.999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.192</v>
+        <v>0.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.907</v>
+        <v>0.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.798</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.548</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.824</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.505</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.107</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.566000000000001</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.095</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.882</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.332</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.242000000000001</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.55555555555</v>
+        <v>45091.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.517</v>
+        <v>7.103</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.729</v>
+        <v>6.019</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.306</v>
+        <v>0.201</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.618</v>
+        <v>14.907</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.046</v>
+        <v>13.12</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.53</v>
+        <v>4.979</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>19.997</v>
+        <v>16.122</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.06</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.592</v>
+        <v>3.731</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.495</v>
+        <v>5.366</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.809</v>
+        <v>7.185</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.397</v>
+        <v>6.991</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.006</v>
+        <v>2.075</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.263</v>
+        <v>5.368</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.147</v>
+        <v>8.221</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.917</v>
+        <v>4.611</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.637</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.041</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.789</v>
+        <v>77.968</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.77</v>
+        <v>15.635</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.858</v>
+        <v>5.361</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.432</v>
+        <v>10.128</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.092</v>
+        <v>5.224</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.643</v>
+        <v>0.72</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.9</v>
+        <v>8.680999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.291</v>
+        <v>4.568</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.002</v>
+        <v>3.816</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.598</v>
+        <v>4.76</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.253</v>
+        <v>6.472</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.973</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>18.546</v>
+        <v>14.912</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.51</v>
+        <v>4.061</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.074</v>
+        <v>6.171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.5625</v>
+        <v>45091.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.282</v>
+        <v>8.156000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.864</v>
+        <v>6.507</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.745</v>
+        <v>0.226</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.137</v>
+        <v>17.28</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.902</v>
+        <v>14.788</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.591</v>
+        <v>5.968</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.893</v>
+        <v>23.342</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.671</v>
+        <v>9.553000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.881</v>
+        <v>4.326</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.486</v>
+        <v>6.28</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.229</v>
+        <v>7.663</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.476</v>
+        <v>7.767</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.596</v>
+        <v>2.196</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.128</v>
+        <v>6.196</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.456</v>
+        <v>9.332000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.33</v>
+        <v>5.268</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.452</v>
+        <v>0.469</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.241</v>
+        <v>0.093</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.919</v>
+        <v>89.664</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.466</v>
+        <v>17.913</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.041</v>
+        <v>6.037</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.069</v>
+        <v>11.863</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.086</v>
+        <v>6.121</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.124</v>
+        <v>0.827</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.336</v>
+        <v>11.93</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>5.199</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.987</v>
+        <v>4.407</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.092</v>
+        <v>5.415</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.367</v>
+        <v>7.414</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.644</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>7.71</v>
+        <v>21.755</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.407</v>
+        <v>4.068</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.309</v>
+        <v>7.153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.56944444445</v>
+        <v>45091.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.352</v>
+        <v>4.34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.196</v>
+        <v>3.51</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>3.472</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.291</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.376</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.391</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.228</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.604</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.103</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.307</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.459</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>3.584</v>
+        <v>14.34</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.052</v>
+        <v>2.3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.442</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.86</v>
+        <v>3.74</v>
       </c>
     </row>
   </sheetData>
